--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="5">
   <si>
     <t>searchKeyWord</t>
   </si>
